--- a/R/analysis/data/Pt_01_Experimental.xlsx
+++ b/R/analysis/data/Pt_01_Experimental.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -574,7 +574,7 @@
         <v>1.14</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.4</v>
+        <v>4.4</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -631,16 +631,16 @@
         <v>1.91</v>
       </c>
       <c r="K4" t="n">
-        <v>5.44</v>
+        <v>0.78</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.56</v>
+        <v>3.85</v>
       </c>
       <c r="M4" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -689,14 +689,14 @@
         <v>1.77</v>
       </c>
       <c r="K5" t="n">
-        <v>2.36</v>
+        <v>0.38</v>
       </c>
       <c r="L5" t="n">
-        <v>2.29</v>
+        <v>3.14</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0.55</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.4</v>
+        <v>4.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
@@ -807,16 +807,16 @@
         <v>1.46</v>
       </c>
       <c r="K7" t="n">
-        <v>4.73</v>
+        <v>0.89</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.06</v>
+        <v>3.77</v>
       </c>
       <c r="M7" t="n">
-        <v>4.01</v>
+        <v>0.23</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.17</v>
+        <v>2.84</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>1.72</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.17</v>
+        <v>4.17</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0.81</v>
       </c>
       <c r="K10" t="n">
-        <v>5.28</v>
+        <v>0.62</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.44</v>
+        <v>3.73</v>
       </c>
       <c r="M10" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0.89</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="e">
@@ -1153,14 +1153,14 @@
         <v>3.47</v>
       </c>
       <c r="K13" t="n">
-        <v>6.64</v>
+        <v>0.63</v>
       </c>
       <c r="L13" t="n">
-        <v>0.44</v>
+        <v>4.7</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0.71</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="e">
@@ -1321,14 +1321,14 @@
         <v>4.59</v>
       </c>
       <c r="K16" t="n">
-        <v>6.24</v>
+        <v>0.23</v>
       </c>
       <c r="L16" t="n">
-        <v>0.16</v>
+        <v>4.41</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0.89</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1489,14 +1489,14 @@
         <v>1.14</v>
       </c>
       <c r="K19" t="n">
-        <v>6.49</v>
+        <v>0.23</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.16</v>
+        <v>4.59</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1556,7 +1556,7 @@
         <v>0.5</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0.93</v>
       </c>
       <c r="L21" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="e">
@@ -1661,14 +1661,14 @@
         <v>1.46</v>
       </c>
       <c r="K22" t="n">
-        <v>5.66</v>
+        <v>1.41</v>
       </c>
       <c r="L22" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0.75</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0.52</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.38</v>
+        <v>4.38</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="e">
@@ -1833,14 +1833,14 @@
         <v>0.51</v>
       </c>
       <c r="K25" t="n">
-        <v>5.57</v>
+        <v>0.62</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.44</v>
+        <v>3.94</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>1.25</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.71</v>
+        <v>3.71</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0.35</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.88</v>
+        <v>3.88</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="e">
@@ -2001,14 +2001,14 @@
         <v>1.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.86</v>
+        <v>0.62</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.44</v>
+        <v>3.44</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>-3.71</v>
+        <v>3.71</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
